--- a/arquivos/temporarios/zeo.xlsx
+++ b/arquivos/temporarios/zeo.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149" xml:space="preserve">
   <si>
     <t>Número de série</t>
   </si>
@@ -146,25 +146,19 @@
     <t>Panetteria Attimino - Rua José Mariano Filho - Jardim Oriental, São Paulo - SP, Brasil</t>
   </si>
   <si>
-    <t>0904 teste</t>
-  </si>
-  <si>
-    <t>03:04 PM</t>
+    <t>2025-04-09 (amxfacility37747)</t>
+  </si>
+  <si>
+    <t>07:44 PM</t>
   </si>
   <si>
     <t>amxfacility@gmail.com</t>
   </si>
   <si>
-    <t>Rua dos Jornalistas, 68, APTO 12 - Cidade Vargas São Paulo/SP CEP:04318-000</t>
-  </si>
-  <si>
-    <t>2 km 604 m</t>
-  </si>
-  <si>
-    <t>03:10 PM</t>
-  </si>
-  <si>
-    <t>6 mins 15 secs</t>
+    <t>Rua José Mariano Filho, 200,  - Jardim Oriental São Paulo/SP CEP:04347-180</t>
+  </si>
+  <si>
+    <t>0 m</t>
   </si>
   <si>
     <t>now</t>
@@ -176,7 +170,7 @@
     <t>delivery</t>
   </si>
   <si>
-    <t>68 Rua dos Jornalistas Condomínio Edifício Eliane Cidade Vargas</t>
+    <t>200 Rua José Mariano Filho Jardim Oriental</t>
   </si>
   <si>
     <t>São Paulo</t>
@@ -185,160 +179,283 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>04318-000</t>
-  </si>
-  <si>
-    <t>Avenida Celso dos Santos, 991 - Vila Constança São Paulo/SP CEP:04658241</t>
-  </si>
-  <si>
-    <t>8 km 3 m</t>
-  </si>
-  <si>
-    <t>03:29 PM</t>
-  </si>
-  <si>
-    <t>5 km 399 m</t>
-  </si>
-  <si>
-    <t>14 mins 19 secs</t>
-  </si>
-  <si>
-    <t>991 Avenida Celso dos Santos Vila Constancia</t>
-  </si>
-  <si>
-    <t>04658-241</t>
-  </si>
-  <si>
-    <t>Rua Estampa Esportiva, 508,  - Americanópolis São Paulo/SP CEP:04429-060</t>
-  </si>
-  <si>
-    <t>9 km 358 m</t>
-  </si>
-  <si>
-    <t>03:37 PM</t>
-  </si>
-  <si>
-    <t>1 km 355 m</t>
-  </si>
-  <si>
-    <t>3 mins 32 secs</t>
-  </si>
-  <si>
-    <t>508 Rua Estampa Esportiva Americanópolis</t>
-  </si>
-  <si>
-    <t>04429-060</t>
-  </si>
-  <si>
-    <t>Rua Maria Virgínia Estensoro, 40, BLOCO A - Jardim da Pedreira São Paulo/SP CEP:04462-080</t>
-  </si>
-  <si>
-    <t>11 km 980 m</t>
-  </si>
-  <si>
-    <t>03:47 PM</t>
-  </si>
-  <si>
-    <t>2 km 622 m</t>
-  </si>
-  <si>
-    <t>5 mins 53 secs</t>
-  </si>
-  <si>
-    <t>40A Rua Maria Virgínia Estensoro Jardim Pedreira</t>
-  </si>
-  <si>
-    <t>04462-080</t>
-  </si>
-  <si>
-    <t>Rua Amador Bueno, 767, LOJA I LOVE BURGER  - Santo Amaro São Paulo/SP CEP:04752005</t>
-  </si>
-  <si>
-    <t>20 km 104 m</t>
-  </si>
-  <si>
-    <t>04:04 PM</t>
-  </si>
-  <si>
-    <t>8 km 124 m</t>
-  </si>
-  <si>
-    <t>12 mins 58 secs</t>
-  </si>
-  <si>
-    <t>767 Rua Amador Bueno Santo Amaro</t>
-  </si>
-  <si>
-    <t>04752-005</t>
-  </si>
-  <si>
-    <t>Rua Capitão Otávio Machado, 994 - Chácara Santo Antônio (Zona Sul) São Paulo/SP CEP:04718002</t>
-  </si>
-  <si>
-    <t>25 km 165 m</t>
-  </si>
-  <si>
-    <t>04:16 PM</t>
-  </si>
-  <si>
-    <t>5 km 61 m</t>
-  </si>
-  <si>
-    <t>7 mins 53 secs</t>
-  </si>
-  <si>
-    <t>994 Rua Capitão Otávio Machado Chácara Santo Antônio (Zona Sul)</t>
-  </si>
-  <si>
-    <t>04718-002</t>
-  </si>
-  <si>
-    <t>Avenida das Nações Unidas, 12901, LOJA 123/124 - Brooklin Paulista São Paulo/SP CEP:04578000</t>
-  </si>
-  <si>
-    <t>29 km 14 m</t>
-  </si>
-  <si>
-    <t>04:27 PM</t>
-  </si>
-  <si>
-    <t>3 km 849 m</t>
-  </si>
-  <si>
-    <t>6 mins 41 secs</t>
-  </si>
-  <si>
-    <t>12901 Avenida das Nações Unidas Brooklin</t>
-  </si>
-  <si>
-    <t>04578-910</t>
-  </si>
-  <si>
-    <t>AVENIDA MAGALHAES DE CASTRO, 12000, SALÃO COMERCIAL LOJA 17/18.3 PISO 3 - CIDADE JARDIM São Paulo/SP CEP:05676-120</t>
-  </si>
-  <si>
-    <t>35 km 297 m</t>
-  </si>
-  <si>
-    <t>04:40 PM</t>
-  </si>
-  <si>
-    <t>6 km 283 m</t>
-  </si>
-  <si>
-    <t>8 mins 26 secs</t>
-  </si>
-  <si>
-    <t>12000 Avenida Magalhães de Castro Cidade Jardim</t>
-  </si>
-  <si>
-    <t>05502-001</t>
-  </si>
-  <si>
-    <t>43 km 630 m</t>
-  </si>
-  <si>
-    <t>05:00 PM</t>
+    <t>04347-180</t>
+  </si>
+  <si>
+    <t>Rua Borges Lagoa, 1050,  - Vila Clementino São Paulo/SP CEP:04038-002</t>
+  </si>
+  <si>
+    <t>6 km 810 m</t>
+  </si>
+  <si>
+    <t>08:01 PM</t>
+  </si>
+  <si>
+    <t>12 mins 45 secs</t>
+  </si>
+  <si>
+    <t>1050 Rua Borges Lagoa Vila Clementino</t>
+  </si>
+  <si>
+    <t>04038-002</t>
+  </si>
+  <si>
+    <t>Rua Vergueiro, 4289,  - Vila Mariana São Paulo/SP CEP:04101-901</t>
+  </si>
+  <si>
+    <t>9 km 324 m</t>
+  </si>
+  <si>
+    <t>08:11 PM</t>
+  </si>
+  <si>
+    <t>2 km 514 m</t>
+  </si>
+  <si>
+    <t>5 mins 56 secs</t>
+  </si>
+  <si>
+    <t>4289 Rua Vergueiro Jardim Vila Mariana</t>
+  </si>
+  <si>
+    <t>04101-300</t>
+  </si>
+  <si>
+    <t>Rua Doutor Tomás Carvalhal, 626 - Paraíso São Paulo/SP CEP:04006001</t>
+  </si>
+  <si>
+    <t>13 km 22 m</t>
+  </si>
+  <si>
+    <t>08:23 PM</t>
+  </si>
+  <si>
+    <t>3 km 698 m</t>
+  </si>
+  <si>
+    <t>7 mins 49 secs</t>
+  </si>
+  <si>
+    <t>626 Rua Doutor Tomás Carvalhal Paraíso</t>
+  </si>
+  <si>
+    <t>04006-001</t>
+  </si>
+  <si>
+    <t>Rua Abílio Soares, 731 - Paraíso São Paulo/SP CEP:04005003</t>
+  </si>
+  <si>
+    <t>13 km 706 m</t>
+  </si>
+  <si>
+    <t>08:30 PM</t>
+  </si>
+  <si>
+    <t>684 m</t>
+  </si>
+  <si>
+    <t>2 mins 25 secs</t>
+  </si>
+  <si>
+    <t>731 Rua Abílio Soares Paraíso</t>
+  </si>
+  <si>
+    <t>04005-003</t>
+  </si>
+  <si>
+    <t>Rua Catão, 479, NBURGER - Vila Romana São Paulo/SP CEP:05049000</t>
+  </si>
+  <si>
+    <t>25 km 903 m</t>
+  </si>
+  <si>
+    <t>08:53 PM</t>
+  </si>
+  <si>
+    <t>12 km 197 m</t>
+  </si>
+  <si>
+    <t>18 mins 41 secs</t>
+  </si>
+  <si>
+    <t>1111 Rua Antônio de Barros Tatuapé</t>
+  </si>
+  <si>
+    <t>03401-000</t>
+  </si>
+  <si>
+    <t>Rua Guaipá, 1017,  - Vila Leopoldina São Paulo/SP CEP:05089-001</t>
+  </si>
+  <si>
+    <t>47 km 998 m</t>
+  </si>
+  <si>
+    <t>09:20 PM</t>
+  </si>
+  <si>
+    <t>22 km 95 m</t>
+  </si>
+  <si>
+    <t>22 mins 26 secs</t>
+  </si>
+  <si>
+    <t>1017 Rua Guaipá Vila Leopoldina</t>
+  </si>
+  <si>
+    <t>05089-001</t>
+  </si>
+  <si>
+    <t>RUA CAMILO, 763, sem complemento - VILA ROMANA São Paulo/SP CEP:05045020</t>
+  </si>
+  <si>
+    <t>52 km 227 m</t>
+  </si>
+  <si>
+    <t>09:33 PM</t>
+  </si>
+  <si>
+    <t>4 km 229 m</t>
+  </si>
+  <si>
+    <t>8 mins 10 secs</t>
+  </si>
+  <si>
+    <t>763 Rua Camilo Vila Romana</t>
+  </si>
+  <si>
+    <t>05045-020</t>
+  </si>
+  <si>
+    <t>Rua Coriolano, 301 - Vila Romana São Paulo/SP CEP:05047001</t>
+  </si>
+  <si>
+    <t>53 km 683 m</t>
+  </si>
+  <si>
+    <t>09:41 PM</t>
+  </si>
+  <si>
+    <t>1 km 456 m</t>
+  </si>
+  <si>
+    <t>3 mins 44 secs</t>
+  </si>
+  <si>
+    <t>301 Rua Coriolano Vila Romana</t>
+  </si>
+  <si>
+    <t>05047-000</t>
+  </si>
+  <si>
+    <t>Rua Doutor Augusto de Miranda, 549 - Vila Pompéia São Paulo/SP CEP:05026000</t>
+  </si>
+  <si>
+    <t>54 km 218 m</t>
+  </si>
+  <si>
+    <t>09:47 PM</t>
+  </si>
+  <si>
+    <t>535 m</t>
+  </si>
+  <si>
+    <t>1 mins 23 secs</t>
+  </si>
+  <si>
+    <t>549 Rua Doutor Augusto de Miranda Pompeia</t>
+  </si>
+  <si>
+    <t>05026-000</t>
+  </si>
+  <si>
+    <t>Rua Desembargador do Vale, 836, ANEXO 830 - Perdizes São Paulo/SP CEP:05010040</t>
+  </si>
+  <si>
+    <t>54 km 385 m</t>
+  </si>
+  <si>
+    <t>09:52 PM</t>
+  </si>
+  <si>
+    <t>167 m</t>
+  </si>
+  <si>
+    <t>36 secs</t>
+  </si>
+  <si>
+    <t>836 Rua Desembargador do Vale Perdizes</t>
+  </si>
+  <si>
+    <t>05010-040</t>
+  </si>
+  <si>
+    <t>Rua Caraíbas, 964, IMOBILIARIA ESTEVAM - Perdizes São Paulo/SP CEP:05020000</t>
+  </si>
+  <si>
+    <t>55 km 428 m</t>
+  </si>
+  <si>
+    <t>09:59 PM</t>
+  </si>
+  <si>
+    <t>1 km 43 m</t>
+  </si>
+  <si>
+    <t>2 mins 50 secs</t>
+  </si>
+  <si>
+    <t>964 Rua Caraíbas Perdizes</t>
+  </si>
+  <si>
+    <t>05020-000</t>
+  </si>
+  <si>
+    <t>Rua Cardoso de Almeida, 587,  - Perdizes São Paulo/SP CEP:05013-000</t>
+  </si>
+  <si>
+    <t>58 km 352 m</t>
+  </si>
+  <si>
+    <t>10:11 PM</t>
+  </si>
+  <si>
+    <t>2 km 924 m</t>
+  </si>
+  <si>
+    <t>7 mins 31 secs</t>
+  </si>
+  <si>
+    <t>587 Rua Cardoso de Almeida Perdizes</t>
+  </si>
+  <si>
+    <t>05013-000</t>
+  </si>
+  <si>
+    <t>Rua Alves Guimarães, 1091, COZINHA 4 - Pinheiros São Paulo/SP CEP:05410-002</t>
+  </si>
+  <si>
+    <t>61 km 360 m</t>
+  </si>
+  <si>
+    <t>10:22 PM</t>
+  </si>
+  <si>
+    <t>3 km 8 m</t>
+  </si>
+  <si>
+    <t>6 mins 51 secs</t>
+  </si>
+  <si>
+    <t>1091 Rua Alves Guimarães Pinheiros</t>
+  </si>
+  <si>
+    <t>05410-002</t>
+  </si>
+  <si>
+    <t>74 km 836 m</t>
+  </si>
+  <si>
+    <t>10:51 PM</t>
   </si>
 </sst>
 </file>
@@ -402,14 +519,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="128.70000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="97.9"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="39.6"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="18.700000000000003"/>
@@ -443,13 +560,13 @@
     <col min="33" max="33" bestFit="1" customWidth="1" width="22.0"/>
     <col min="34" max="34" bestFit="1" customWidth="1" width="23.1"/>
     <col min="35" max="35" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="36" max="36" bestFit="1" customWidth="1" width="72.60000000000001"/>
+    <col min="36" max="36" bestFit="1" customWidth="1" width="49.50000000000001"/>
     <col min="37" max="37" bestFit="1" customWidth="1" width="14.3"/>
     <col min="38" max="38" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="9.9"/>
     <col min="41" max="41" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="42" max="42" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="42" max="42" bestFit="1" customWidth="1" width="35.2"/>
     <col min="43" max="43" bestFit="1" customWidth="1" width="18.700000000000003"/>
     <col min="44" max="44" bestFit="1" customWidth="1" width="26.400000000000002"/>
   </cols>
@@ -809,10 +926,10 @@
         <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -822,8 +939,10 @@
       <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>51</v>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
@@ -836,10 +955,10 @@
         </is>
       </c>
       <c r="K3" s="0" t="n">
-        <v>-23.6440841</v>
+        <v>-23.6420681</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>-46.6390995</v>
+        <v>-46.6511383</v>
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
@@ -847,7 +966,7 @@
         </is>
       </c>
       <c r="N3" s="0" t="n">
-        <v>72.858</v>
+        <v>72.956</v>
       </c>
       <c r="O3" s="0" t="inlineStr">
         <is>
@@ -918,13 +1037,13 @@
         </is>
       </c>
       <c r="AC3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5</v>
@@ -945,24 +1064,24 @@
         </is>
       </c>
       <c r="AJ3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AL3" s="0" t="s">
+      <c r="AO3" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="AM3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO3" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="AP3" s="0" t="inlineStr">
         <is>
@@ -985,28 +1104,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1018,10 +1137,10 @@
         </is>
       </c>
       <c r="K4" s="0" t="n">
-        <v>-23.6710685</v>
+        <v>-23.5965899</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>-46.6653575</v>
+        <v>-46.6469629</v>
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
@@ -1029,7 +1148,7 @@
         </is>
       </c>
       <c r="N4" s="0" t="n">
-        <v>72.865</v>
+        <v>72.99</v>
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
@@ -1100,13 +1219,13 @@
         </is>
       </c>
       <c r="AC4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5</v>
@@ -1127,7 +1246,7 @@
         </is>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AK4" s="0" t="inlineStr">
         <is>
@@ -1135,16 +1254,16 @@
         </is>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AP4" s="0" t="inlineStr">
         <is>
@@ -1167,28 +1286,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1200,10 +1319,10 @@
         </is>
       </c>
       <c r="K5" s="0" t="n">
-        <v>-23.6800919</v>
+        <v>-23.5949857</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>-46.6643019</v>
+        <v>-46.6263904</v>
       </c>
       <c r="M5" s="0" t="inlineStr">
         <is>
@@ -1211,7 +1330,7 @@
         </is>
       </c>
       <c r="N5" s="0" t="n">
-        <v>72.928</v>
+        <v>72.988</v>
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
@@ -1282,13 +1401,13 @@
         </is>
       </c>
       <c r="AC5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>5</v>
@@ -1309,7 +1428,7 @@
         </is>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AK5" s="0" t="inlineStr">
         <is>
@@ -1317,16 +1436,16 @@
         </is>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AP5" s="0" t="inlineStr">
         <is>
@@ -1349,28 +1468,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1382,10 +1501,10 @@
         </is>
       </c>
       <c r="K6" s="0" t="n">
-        <v>-23.6948731</v>
+        <v>-23.577397</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>-46.6670165</v>
+        <v>-46.6472826</v>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
@@ -1393,7 +1512,7 @@
         </is>
       </c>
       <c r="N6" s="0" t="n">
-        <v>72.927</v>
+        <v>72.967</v>
       </c>
       <c r="O6" s="0" t="inlineStr">
         <is>
@@ -1464,13 +1583,13 @@
         </is>
       </c>
       <c r="AC6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>5</v>
@@ -1491,7 +1610,7 @@
         </is>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AK6" s="0" t="inlineStr">
         <is>
@@ -1499,16 +1618,16 @@
         </is>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AP6" s="0" t="inlineStr">
         <is>
@@ -1531,28 +1650,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1564,10 +1683,10 @@
         </is>
       </c>
       <c r="K7" s="0" t="n">
-        <v>-23.6532202</v>
+        <v>-23.5758615</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>-46.715117</v>
+        <v>-46.6483855</v>
       </c>
       <c r="M7" s="0" t="inlineStr">
         <is>
@@ -1575,7 +1694,7 @@
         </is>
       </c>
       <c r="N7" s="0" t="n">
-        <v>72.913</v>
+        <v>72.791</v>
       </c>
       <c r="O7" s="0" t="inlineStr">
         <is>
@@ -1646,13 +1765,13 @@
         </is>
       </c>
       <c r="AC7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5</v>
@@ -1673,7 +1792,7 @@
         </is>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK7" s="0" t="inlineStr">
         <is>
@@ -1681,16 +1800,16 @@
         </is>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN7" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AP7" s="0" t="inlineStr">
         <is>
@@ -1713,28 +1832,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1746,10 +1865,10 @@
         </is>
       </c>
       <c r="K8" s="0" t="n">
-        <v>-23.6315383</v>
+        <v>-23.5400336</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>-46.7066709</v>
+        <v>-46.557297</v>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
@@ -1757,7 +1876,7 @@
         </is>
       </c>
       <c r="N8" s="0" t="n">
-        <v>72.912</v>
+        <v>72.937</v>
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
@@ -1828,13 +1947,13 @@
         </is>
       </c>
       <c r="AC8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5</v>
@@ -1855,7 +1974,7 @@
         </is>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AK8" s="0" t="inlineStr">
         <is>
@@ -1863,16 +1982,16 @@
         </is>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN8" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AP8" s="0" t="inlineStr">
         <is>
@@ -1895,28 +2014,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1928,10 +2047,10 @@
         </is>
       </c>
       <c r="K9" s="0" t="n">
-        <v>-23.6103668</v>
+        <v>-23.5214876</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>-46.6966448</v>
+        <v>-46.7321674</v>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
@@ -1939,7 +2058,7 @@
         </is>
       </c>
       <c r="N9" s="0" t="n">
-        <v>72.857</v>
+        <v>72.903</v>
       </c>
       <c r="O9" s="0" t="inlineStr">
         <is>
@@ -2010,13 +2129,13 @@
         </is>
       </c>
       <c r="AC9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5</v>
@@ -2037,7 +2156,7 @@
         </is>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="0" t="inlineStr">
         <is>
@@ -2045,16 +2164,16 @@
         </is>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AP9" s="0" t="inlineStr">
         <is>
@@ -2077,28 +2196,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2110,10 +2229,10 @@
         </is>
       </c>
       <c r="K10" s="0" t="n">
-        <v>-23.5992526</v>
+        <v>-23.529255</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>-46.6974185</v>
+        <v>-46.6995031</v>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
@@ -2121,7 +2240,7 @@
         </is>
       </c>
       <c r="N10" s="0" t="n">
-        <v>72.869</v>
+        <v>72.941</v>
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
@@ -2192,13 +2311,13 @@
         </is>
       </c>
       <c r="AC10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AD10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>5</v>
@@ -2219,7 +2338,7 @@
         </is>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AK10" s="0" t="inlineStr">
         <is>
@@ -2227,16 +2346,16 @@
         </is>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AP10" s="0" t="inlineStr">
         <is>
@@ -2259,32 +2378,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2296,20 +2411,18 @@
         </is>
       </c>
       <c r="K11" s="0" t="n">
-        <v>-23.642068</v>
+        <v>-23.5262495</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>-46.651138</v>
+        <v>-46.68838</v>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N11" s="0" t="n">
+        <v>72.935</v>
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
@@ -2371,35 +2484,25 @@
           <t/>
         </is>
       </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AA11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AB11" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AC11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AC11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="AG11" s="0" t="inlineStr">
         <is>
@@ -2416,35 +2519,25 @@
           <t/>
         </is>
       </c>
-      <c r="AJ11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AJ11" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="AK11" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AL11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AL11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="AP11" s="0" t="inlineStr">
         <is>
@@ -2463,45 +2556,31 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
@@ -2513,25 +2592,19 @@
           <t/>
         </is>
       </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K12" s="0" t="n">
+        <v>-23.528497</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>-46.6877101</v>
       </c>
       <c r="M12" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N12" s="0" t="n">
+        <v>72.891</v>
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
@@ -2593,35 +2666,25 @@
           <t/>
         </is>
       </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AA12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AB12" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AC12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AC12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="AG12" s="0" t="inlineStr">
         <is>
@@ -2638,35 +2701,25 @@
           <t/>
         </is>
       </c>
-      <c r="AJ12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AJ12" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="AK12" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AL12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AL12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="AP12" s="0" t="inlineStr">
         <is>
@@ -2685,45 +2738,31 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
@@ -2735,25 +2774,19 @@
           <t/>
         </is>
       </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K13" s="0" t="n">
+        <v>-23.529528</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>-46.6884169</v>
       </c>
       <c r="M13" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="N13" s="0" t="n">
+        <v>72.838</v>
       </c>
       <c r="O13" s="0" t="inlineStr">
         <is>
@@ -2815,35 +2848,25 @@
           <t/>
         </is>
       </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AA13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AB13" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AC13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AC13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="AG13" s="0" t="inlineStr">
         <is>
@@ -2860,35 +2883,25 @@
           <t/>
         </is>
       </c>
-      <c r="AJ13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AJ13" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="AK13" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AL13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AO13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AL13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="AP13" s="0" t="inlineStr">
         <is>
@@ -2901,6 +2914,1204 @@
         </is>
       </c>
       <c r="AR13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>-23.535692</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>-46.6848128</v>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>72.97</v>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>-23.536401</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>-46.6669682</v>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>73.008</v>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>-23.5536087</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>-46.680157</v>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>72.859</v>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>-23.642068</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>-46.651138</v>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
